--- a/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCheque.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCheque.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF095097-B768-41F2-91B0-81A96962BC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB15F8E-9867-4194-A03D-AB9DB77392ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,20 @@
     <sheet name="提出檔規格" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="168">
   <si>
     <t>備註說明</t>
   </si>
@@ -115,13 +124,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Y: 是   N: 否</t>
-  </si>
-  <si>
-    <t>Y: 是   N: 否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Table</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -235,12 +237,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>共用代碼檔
-1: 本埠   
-2: 外埠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BktwFlag</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -273,22 +269,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>共用代碼檔
-0: 未處理
-1: 兌現入帳
-2: 退票
-3: 抽票
-4: 兌現未入帳
-5: 即期票</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>共用代碼檔
-1: 不處理    
-2: 已處理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AreaCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -368,14 +348,6 @@
   </si>
   <si>
     <t>對方業務科目</t>
-  </si>
-  <si>
-    <t>共用代碼檔
-310: 短期擔保放款 
-320: 中期擔保放款
-330: 長期擔保放款
-340: 三十年房貸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>共用代碼檔
@@ -403,26 +375,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>共用代碼檔
-01: 總所
-03: 台中市分所
-04: 台南市分所
-05: 高雄市分所
-07: 桃園縣分所
-08: 新竹市分所
-09: 苗栗縣分所
-11: 南投縣分所
-13: 雲林縣分所
-14: 嘉義市分所
-15: 台南縣分所
-17: 屏東縣分所
-18: 宜蘭縣分所
-19: 花蓮縣分所
-20: 台東縣分所
-21: 澎湖縣分所</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ChequeAcct</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -693,6 +645,61 @@
   <si>
     <t>CustNo &gt;= ,AND CustNo &lt;= ,AND StatusCode ^i ,AND ChequeNo &gt;= ,AND ChequeNo &lt;= ,AND  ChequeDate &gt;= ,AND ChequeDate &lt;=</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+0:未處理
+1:兌現入帳
+2:退票
+3:抽票
+4:兌現未入帳
+5:即期票</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+1:不處理    
+2:已處理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+01:總所
+03:台中市分所
+04:台南市分所
+05:高雄市分所
+07:桃園縣分所
+08:新竹市分所
+09:苗栗縣分所
+11:南投縣分所
+13:雲林縣分所
+14:嘉義市分所
+15:台南縣分所
+17:屏東縣分所
+18:宜蘭縣分所
+19:花蓮縣分所
+20:台東縣分所
+21:澎湖縣分所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+1:本埠   
+2:外埠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:是
+N:否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+310:短期擔保放款 
+320:中期擔保放款
+330:長期擔保放款
+340:三十年房貸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1377,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="64.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1394,14 +1401,14 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E1" s="24"/>
       <c r="F1" s="25"/>
@@ -1418,7 +1425,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="25"/>
@@ -1430,14 +1437,14 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="25"/>
@@ -1449,7 +1456,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="7"/>
@@ -1464,7 +1471,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="7"/>
@@ -1479,7 +1486,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="7"/>
@@ -1494,7 +1501,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="7"/>
@@ -1536,13 +1543,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="4">
         <v>7</v>
@@ -1555,13 +1562,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" s="4">
         <v>9</v>
@@ -1574,13 +1581,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" s="4">
         <v>7</v>
@@ -1593,19 +1600,19 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
@@ -1614,19 +1621,19 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1635,13 +1642,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E14" s="4">
         <v>8</v>
@@ -1654,13 +1661,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E15" s="17">
         <v>4</v>
@@ -1673,13 +1680,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E16" s="4">
         <v>6</v>
@@ -1692,13 +1699,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E17" s="4">
         <v>8</v>
@@ -1711,19 +1718,19 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E18" s="4">
         <v>8</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1732,19 +1739,19 @@
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E19" s="4">
         <v>8</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1753,13 +1760,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E20" s="4">
         <v>3</v>
@@ -1772,13 +1779,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E21" s="4">
         <v>16</v>
@@ -1794,13 +1801,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22" s="4">
         <v>60</v>
@@ -1813,13 +1820,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E23" s="4">
         <v>8</v>
@@ -1832,19 +1839,19 @@
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E24" s="4">
         <v>2</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1853,13 +1860,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E25" s="4">
         <v>7</v>
@@ -1872,82 +1879,82 @@
         <v>18</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
@@ -1956,19 +1963,19 @@
         <v>22</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E30" s="4">
         <v>2</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
@@ -1977,19 +1984,19 @@
         <v>23</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1998,13 +2005,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E32" s="4">
         <v>10</v>
@@ -2017,13 +2024,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E33" s="4">
         <v>7</v>
@@ -2036,19 +2043,19 @@
         <v>26</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E34" s="17">
         <v>3</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2057,13 +2064,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E35" s="17">
         <v>5</v>
@@ -2076,13 +2083,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E36" s="4">
         <v>16</v>
@@ -2098,13 +2105,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G37" s="14"/>
     </row>
@@ -2114,13 +2121,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E38" s="4">
         <v>6</v>
@@ -2133,13 +2140,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G39" s="19"/>
     </row>
@@ -2149,13 +2156,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E40" s="4">
         <v>6</v>
@@ -2182,7 +2189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
@@ -2197,7 +2204,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -2208,73 +2215,73 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2306,38 +2313,38 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D2" s="31">
         <v>7</v>
@@ -2354,13 +2361,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D3" s="31">
         <v>7</v>
@@ -2374,20 +2381,20 @@
         <v>14</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H3" s="33"/>
       <c r="I3" s="33"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D4" s="31">
         <v>7</v>
@@ -2406,13 +2413,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D5" s="31">
         <v>9</v>
@@ -2431,13 +2438,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D6" s="31">
         <v>10</v>
@@ -2456,13 +2463,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D7" s="31">
         <v>7</v>
@@ -2476,20 +2483,20 @@
         <v>47</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D8" s="31">
         <v>8</v>
@@ -2503,20 +2510,20 @@
         <v>55</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D9" s="31">
         <v>6</v>
@@ -2530,20 +2537,20 @@
         <v>61</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D10" s="31">
         <v>1</v>
@@ -2557,22 +2564,22 @@
         <v>62</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="33" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D11" s="31">
         <v>6</v>
@@ -2588,18 +2595,18 @@
       <c r="G11" s="32"/>
       <c r="H11" s="33"/>
       <c r="I11" s="33" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D12" s="31">
         <v>10</v>
@@ -2615,18 +2622,18 @@
       <c r="G12" s="32"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D13" s="31">
         <v>7</v>
@@ -2640,22 +2647,22 @@
         <v>85</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D14" s="31">
         <v>10</v>
@@ -2669,11 +2676,11 @@
         <v>95</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="33" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -2686,7 +2693,7 @@
       <c r="G15" s="36"/>
       <c r="H15" s="33"/>
       <c r="I15" s="33" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
